--- a/basic-test/src/main/resources/template/export/maintence_base_template2.xlsx
+++ b/basic-test/src/main/resources/template/export/maintence_base_template2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28128" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1287,9 @@
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1298,6 +1301,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1652,8 +1658,8 @@
   <sheetPr/>
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2471,16 +2477,16 @@
       </c>
       <c r="O17" s="19"/>
       <c r="P17" s="29"/>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="39"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="42"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -3185,10 +3191,10 @@
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
       <c r="AA33" s="22"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="45"/>
     </row>
-    <row r="34" ht="17.4" spans="2:28">
+    <row r="34" ht="17.4" spans="2:29">
       <c r="B34" s="23" t="s">
         <v>96</v>
       </c>
@@ -3227,13 +3233,14 @@
         <v>102</v>
       </c>
       <c r="Y34" s="13"/>
-      <c r="Z34" s="45" t="s">
+      <c r="Z34" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="47"/>
     </row>
-    <row r="35" ht="15.6" spans="2:28">
+    <row r="35" ht="15.6" spans="2:29">
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="13"/>
@@ -3284,11 +3291,12 @@
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="47"/>
     </row>
-    <row r="36" ht="16.2" spans="2:28">
+    <row r="36" ht="16.2" spans="2:29">
       <c r="B36" s="24" t="s">
         <v>116</v>
       </c>
@@ -3347,15 +3355,16 @@
       <c r="W36" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="X36" s="42" t="s">
+      <c r="X36" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42" t="s">
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="46"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="151">
